--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29859.93603326187</v>
+        <v>21377.49574954942</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3818908.855711401</v>
+        <v>3818908.855711402</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>75.12485239226392</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>115.3776882757688</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1505,7 +1505,7 @@
         <v>136.7309641056443</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8596299154312</v>
+        <v>182.8596299154304</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>230.4710781965219</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.42959192123657</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>410.5578644578923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.5281633465511</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90453113913502</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>136.7309641056443</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8596299154304</v>
+        <v>182.8596299154312</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>130.5058175180711</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -1815,22 +1815,22 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>56.79618327844764</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54098133534616</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>68.9862585204219</v>
       </c>
       <c r="G17" t="n">
         <v>398.5660300744983</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>217.434750957465</v>
       </c>
       <c r="U19" t="n">
-        <v>272.2249883151007</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>30.27986573220991</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>272.0839853675001</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
-        <v>136.7309641056443</v>
+        <v>136.7309641056447</v>
       </c>
       <c r="U21" t="n">
         <v>182.8596299154304</v>
@@ -2247,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>55.75114581296798</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>65.93169399229362</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>80.6983480668909</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>263.3224664807157</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T24" t="n">
         <v>136.7309641056443</v>
@@ -2484,7 +2484,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>75.56520497980708</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.96607179173454</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>140.6204626048485</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.932596705742463</v>
       </c>
     </row>
     <row r="27">
@@ -2721,16 +2721,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.9126128011615</v>
+        <v>55.75114581296816</v>
       </c>
       <c r="T28" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>44.07248375248217</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U29" t="n">
-        <v>75.47528872301163</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>199.4130558061291</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U31" t="n">
-        <v>222.205296943146</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>101.8307219780116</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>75.47528872301187</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>199.4130558061291</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.8818907149933</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T34" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>164.1972685018135</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>56.98554623832744</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T35" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.632988972596</v>
+        <v>183.6538575812278</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.49775658817609</v>
+        <v>156.6436100919863</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>168.0355777520287</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>140.6187526719639</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>161.754833597774</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>84.65948421310823</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>305.4136146870281</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>63.66795662934395</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>29.66262390997236</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>81.50866694078776</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U43" t="n">
         <v>277.3402845023203</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>36.87348410340264</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.90941067458684</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T44" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>197.7682291909192</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T45" t="n">
         <v>136.7309641056443</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T46" t="n">
-        <v>114.390268423797</v>
+        <v>84.65948421310867</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>889.1538359172346</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="C11" t="n">
-        <v>462.2531059305347</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2531059305347</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="E11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.0889345387267</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.26518444914</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="W11" t="n">
-        <v>1300.873834749487</v>
+        <v>523.8798541957601</v>
       </c>
       <c r="X11" t="n">
-        <v>889.1538359172346</v>
+        <v>112.1598553635073</v>
       </c>
       <c r="Y11" t="n">
-        <v>889.1538359172346</v>
+        <v>112.1598553635073</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5120,25 +5120,25 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>433.5238427951067</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K12" t="n">
-        <v>559.2924683663467</v>
+        <v>590.33890554562</v>
       </c>
       <c r="L12" t="n">
-        <v>735.9313191969957</v>
+        <v>766.977756376269</v>
       </c>
       <c r="M12" t="n">
-        <v>945.2060176780108</v>
+        <v>976.252454857284</v>
       </c>
       <c r="N12" t="n">
-        <v>1162.360999510327</v>
+        <v>1193.4074366896</v>
       </c>
       <c r="O12" t="n">
-        <v>1357.404666497814</v>
+        <v>1388.451103677087</v>
       </c>
       <c r="P12" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453737</v>
@@ -5153,19 +5153,19 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.303662297285</v>
+        <v>374.4569350466227</v>
       </c>
       <c r="C13" t="n">
-        <v>744.303662297285</v>
+        <v>202.4843719255387</v>
       </c>
       <c r="D13" t="n">
-        <v>580.9868894240557</v>
+        <v>202.4843719255387</v>
       </c>
       <c r="E13" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5205,46 +5205,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.25223946253</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.250945554478</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T13" t="n">
-        <v>1581.009235034238</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.867533516743</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="V13" t="n">
-        <v>1019.156066124772</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="W13" t="n">
-        <v>744.303662297285</v>
+        <v>848.9753608782762</v>
       </c>
       <c r="X13" t="n">
-        <v>744.303662297285</v>
+        <v>790.9656720689463</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.303662297285</v>
+        <v>564.6229037586884</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.27616607839228</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27616607839228</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872633</v>
+        <v>68.0889345387269</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K14" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M14" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1607.214199529158</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V14" t="n">
-        <v>1249.724784655408</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W14" t="n">
-        <v>853.3334349557547</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X14" t="n">
-        <v>441.613436123502</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.27616607839228</v>
+        <v>1133.548788392143</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760276</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004382</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
         <v>36.27616607839228</v>
@@ -5378,7 +5378,7 @@
         <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453737</v>
+        <v>1780.360625738642</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919614</v>
@@ -5390,19 +5390,19 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.137999643809</v>
+        <v>582.4817252189257</v>
       </c>
       <c r="C16" t="n">
-        <v>916.1654365227246</v>
+        <v>410.5091620978417</v>
       </c>
       <c r="D16" t="n">
-        <v>752.8486636494953</v>
+        <v>410.5091620978417</v>
       </c>
       <c r="E16" t="n">
-        <v>586.6404578023488</v>
+        <v>244.3009562506952</v>
       </c>
       <c r="F16" t="n">
-        <v>414.7786835769092</v>
+        <v>244.3009562506952</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H16" t="n">
         <v>112.4768981516335</v>
@@ -5442,19 +5442,19 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>912.7564163623085</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M16" t="n">
-        <v>1157.206471898203</v>
+        <v>703.7823482166198</v>
       </c>
       <c r="N16" t="n">
-        <v>1254.205177990151</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1802.007452933977</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T16" t="n">
-        <v>1562.016618765574</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="U16" t="n">
-        <v>1562.016618765574</v>
+        <v>1365.388364748642</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.016618765574</v>
+        <v>1083.676897356671</v>
       </c>
       <c r="W16" t="n">
-        <v>1562.016618765574</v>
+        <v>808.8244935291837</v>
       </c>
       <c r="X16" t="n">
-        <v>1504.646736666132</v>
+        <v>808.8244935291837</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.303968355874</v>
+        <v>582.4817252189257</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1813.808303919614</v>
+        <v>508.5512050631602</v>
       </c>
       <c r="C17" t="n">
-        <v>1713.261858126335</v>
+        <v>508.5512050631602</v>
       </c>
       <c r="D17" t="n">
-        <v>1289.969237311335</v>
+        <v>508.5512050631602</v>
       </c>
       <c r="E17" t="n">
-        <v>863.9922974591925</v>
+        <v>508.5512050631602</v>
       </c>
       <c r="F17" t="n">
         <v>438.8681156485927</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
         <v>68.08893453872669</v>
@@ -5518,13 +5518,13 @@
         <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>920.271203895413</v>
       </c>
       <c r="W17" t="n">
-        <v>1813.808303919614</v>
+        <v>920.271203895413</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.808303919614</v>
+        <v>508.5512050631602</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.808303919614</v>
+        <v>508.5512050631602</v>
       </c>
     </row>
     <row r="18">
@@ -5576,19 +5576,19 @@
         <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
         <v>75.26691519968659</v>
@@ -5612,7 +5612,7 @@
         <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.6354821452916</v>
+        <v>380.1105034249158</v>
       </c>
       <c r="C19" t="n">
-        <v>537.6629190242076</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D19" t="n">
-        <v>374.3461461509783</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E19" t="n">
         <v>208.1379403038318</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
         <v>148.0721041840598</v>
@@ -5679,10 +5679,10 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>912.7564163623083</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>1016.538552789927</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N19" t="n">
         <v>1465.456108010032</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083371</v>
+        <v>1594.177242346417</v>
       </c>
       <c r="U19" t="n">
-        <v>1142.365347411552</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.365347411552</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="W19" t="n">
-        <v>1142.365347411552</v>
+        <v>1039.183137001434</v>
       </c>
       <c r="X19" t="n">
-        <v>899.8014508573572</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="Y19" t="n">
-        <v>899.8014508573572</v>
+        <v>570.2764721369815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1600.530719422884</v>
+        <v>713.700424100613</v>
       </c>
       <c r="C20" t="n">
-        <v>1600.530719422884</v>
+        <v>713.700424100613</v>
       </c>
       <c r="D20" t="n">
-        <v>1569.944996461055</v>
+        <v>713.700424100613</v>
       </c>
       <c r="E20" t="n">
-        <v>1143.968056608913</v>
+        <v>713.700424100613</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8438747983129</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J20" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M20" t="n">
         <v>862.6140377103479</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U20" t="n">
-        <v>1600.530719422884</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V20" t="n">
-        <v>1600.530719422884</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W20" t="n">
-        <v>1600.530719422884</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="X20" t="n">
-        <v>1600.530719422884</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1600.530719422884</v>
+        <v>1133.548788392143</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F21" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I21" t="n">
-        <v>51.80960935527475</v>
+        <v>51.80960935527474</v>
       </c>
       <c r="J21" t="n">
-        <v>117.9640444811038</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7326700523438</v>
+        <v>734.4196047863164</v>
       </c>
       <c r="L21" t="n">
-        <v>420.3715208829927</v>
+        <v>911.0584556169654</v>
       </c>
       <c r="M21" t="n">
-        <v>629.6462193640077</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N21" t="n">
-        <v>846.801201196324</v>
+        <v>1337.488135930297</v>
       </c>
       <c r="O21" t="n">
-        <v>1295.718756416428</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P21" t="n">
-        <v>1449.116871262781</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q21" t="n">
         <v>1780.360625738642</v>
@@ -5858,7 +5858,7 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
         <v>1611.735244555134</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.7415649981128</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C22" t="n">
-        <v>427.7690018770288</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D22" t="n">
-        <v>264.4522290037995</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E22" t="n">
-        <v>264.4522290037995</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F22" t="n">
-        <v>92.59045477835994</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939832</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L22" t="n">
-        <v>746.3969197472758</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>844.450267324895</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N22" t="n">
-        <v>941.4489734168429</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O22" t="n">
         <v>1390.366528636947</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919614</v>
+        <v>1747.210633220327</v>
       </c>
       <c r="U22" t="n">
-        <v>1533.666602402118</v>
+        <v>1747.210633220327</v>
       </c>
       <c r="V22" t="n">
-        <v>1533.666602402118</v>
+        <v>1747.210633220327</v>
       </c>
       <c r="W22" t="n">
-        <v>1258.814198574631</v>
+        <v>1747.210633220327</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.250302020436</v>
+        <v>1504.646736666132</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.9075337101784</v>
+        <v>1278.303968355874</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1393.959939628084</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C23" t="n">
-        <v>967.0592096413839</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D23" t="n">
-        <v>543.7665888263841</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E23" t="n">
-        <v>117.7896489742417</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F23" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G23" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H23" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I23" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J23" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L23" t="n">
-        <v>598.9981372303105</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M23" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N23" t="n">
         <v>1131.245262923652</v>
@@ -6019,22 +6019,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T23" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422883</v>
       </c>
       <c r="U23" t="n">
-        <v>1813.808303919614</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="V23" t="n">
-        <v>1813.808303919614</v>
+        <v>984.8261641727731</v>
       </c>
       <c r="W23" t="n">
-        <v>1813.808303919614</v>
+        <v>984.8261641727731</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y23" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C24" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D24" t="n">
-        <v>372.0909253760276</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E24" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F24" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G24" t="n">
-        <v>80.62417733004382</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H24" t="n">
-        <v>36.27616607839282</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I24" t="n">
-        <v>75.26691519968713</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J24" t="n">
-        <v>433.5238427951072</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K24" t="n">
-        <v>559.2924683663472</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L24" t="n">
-        <v>735.9313191969961</v>
+        <v>911.0584556169649</v>
       </c>
       <c r="M24" t="n">
-        <v>945.2060176780111</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N24" t="n">
-        <v>1162.360999510327</v>
+        <v>1337.488135930296</v>
       </c>
       <c r="O24" t="n">
-        <v>1357.404666497814</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P24" t="n">
-        <v>1510.802781344167</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q24" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R24" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S24" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T24" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U24" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V24" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W24" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X24" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y24" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1088.137999643809</v>
+        <v>921.9297937966621</v>
       </c>
       <c r="C25" t="n">
-        <v>916.1654365227246</v>
+        <v>749.9572306755781</v>
       </c>
       <c r="D25" t="n">
-        <v>752.8486636494953</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="E25" t="n">
         <v>586.6404578023488</v>
@@ -6144,22 +6144,22 @@
         <v>112.4768981516335</v>
       </c>
       <c r="I25" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J25" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K25" t="n">
-        <v>463.838861142204</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L25" t="n">
-        <v>912.7564163623084</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M25" t="n">
-        <v>1010.809763939928</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N25" t="n">
-        <v>1107.808470031875</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O25" t="n">
         <v>1238.993031259048</v>
@@ -6174,25 +6174,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S25" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T25" t="n">
-        <v>1813.808303919614</v>
+        <v>1581.002427373181</v>
       </c>
       <c r="U25" t="n">
-        <v>1813.808303919614</v>
+        <v>1581.002427373181</v>
       </c>
       <c r="V25" t="n">
-        <v>1813.808303919614</v>
+        <v>1581.002427373181</v>
       </c>
       <c r="W25" t="n">
-        <v>1538.955900092127</v>
+        <v>1581.002427373181</v>
       </c>
       <c r="X25" t="n">
-        <v>1504.646736666132</v>
+        <v>1338.438530818986</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.303968355874</v>
+        <v>1112.095762508728</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1456.318889045863</v>
+        <v>459.568786893392</v>
       </c>
       <c r="C26" t="n">
-        <v>1029.418159059163</v>
+        <v>459.568786893392</v>
       </c>
       <c r="D26" t="n">
-        <v>1029.418159059163</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E26" t="n">
-        <v>603.4412192070209</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F26" t="n">
-        <v>178.3170373964211</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G26" t="n">
-        <v>178.3170373964211</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H26" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I26" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872675</v>
       </c>
       <c r="J26" t="n">
         <v>184.296341114908</v>
@@ -6232,7 +6232,7 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L26" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M26" t="n">
         <v>862.6140377103479</v>
@@ -6253,25 +6253,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T26" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U26" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V26" t="n">
-        <v>1456.318889045863</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W26" t="n">
-        <v>1456.318889045863</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="X26" t="n">
-        <v>1456.318889045863</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="Y26" t="n">
-        <v>1456.318889045863</v>
+        <v>879.4171511849221</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K27" t="n">
-        <v>559.2924683663467</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L27" t="n">
-        <v>735.9313191969957</v>
+        <v>735.9313191969958</v>
       </c>
       <c r="M27" t="n">
-        <v>945.2060176780108</v>
+        <v>945.2060176780109</v>
       </c>
       <c r="N27" t="n">
         <v>1162.360999510327</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.6022183130337</v>
+        <v>543.4272762981451</v>
       </c>
       <c r="C28" t="n">
-        <v>502.6296551919497</v>
+        <v>371.4547131770611</v>
       </c>
       <c r="D28" t="n">
-        <v>339.3128823187204</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E28" t="n">
-        <v>173.104676471574</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F28" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G28" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H28" t="n">
         <v>36.27616607839228</v>
@@ -6387,22 +6387,22 @@
         <v>70.15038753583897</v>
       </c>
       <c r="K28" t="n">
-        <v>138.6345353799611</v>
+        <v>138.6345353799612</v>
       </c>
       <c r="L28" t="n">
-        <v>231.1303584801832</v>
+        <v>356.370067549942</v>
       </c>
       <c r="M28" t="n">
-        <v>680.0479137002876</v>
+        <v>805.2876227700464</v>
       </c>
       <c r="N28" t="n">
-        <v>1102.831680612252</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O28" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q28" t="n">
         <v>1813.808303919614</v>
@@ -6411,25 +6411,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S28" t="n">
-        <v>1657.330917251774</v>
+        <v>1757.494015219646</v>
       </c>
       <c r="T28" t="n">
-        <v>1417.340083083371</v>
+        <v>1757.494015219646</v>
       </c>
       <c r="U28" t="n">
-        <v>1372.822422727329</v>
+        <v>1477.35231370215</v>
       </c>
       <c r="V28" t="n">
-        <v>1091.110955335357</v>
+        <v>1477.35231370215</v>
       </c>
       <c r="W28" t="n">
-        <v>1091.110955335357</v>
+        <v>1202.499909874663</v>
       </c>
       <c r="X28" t="n">
-        <v>1091.110955335357</v>
+        <v>959.9360133204686</v>
       </c>
       <c r="Y28" t="n">
-        <v>864.7681870250995</v>
+        <v>733.5932450102107</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1737.570638542834</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.669908556134</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D29" t="n">
-        <v>887.3772877411345</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E29" t="n">
-        <v>461.4003478889921</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F29" t="n">
-        <v>36.27616607839227</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G29" t="n">
-        <v>36.27616607839227</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H29" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I29" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J29" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K29" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L29" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M29" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N29" t="n">
         <v>1131.245262923652</v>
@@ -6490,25 +6490,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S29" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T29" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U29" t="n">
-        <v>1737.570638542834</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V29" t="n">
-        <v>1737.570638542834</v>
+        <v>920.271203895413</v>
       </c>
       <c r="W29" t="n">
-        <v>1737.570638542834</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="X29" t="n">
-        <v>1737.570638542834</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="Y29" t="n">
-        <v>1737.570638542834</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>475.930883860742</v>
       </c>
       <c r="D30" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E30" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F30" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G30" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H30" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I30" t="n">
         <v>75.26691519968659</v>
@@ -6545,22 +6545,22 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K30" t="n">
-        <v>628.9641045014104</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L30" t="n">
-        <v>805.6029553320593</v>
+        <v>735.9313191969958</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.877653813074</v>
+        <v>945.2060176780109</v>
       </c>
       <c r="N30" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O30" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P30" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q30" t="n">
         <v>1674.905125453736</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.7220042315703</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C31" t="n">
-        <v>201.7494411104863</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D31" t="n">
-        <v>201.7494411104863</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E31" t="n">
-        <v>201.7494411104863</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F31" t="n">
-        <v>201.7494411104863</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G31" t="n">
-        <v>36.27616607839227</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H31" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I31" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J31" t="n">
-        <v>70.15038753583896</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K31" t="n">
-        <v>138.6345353799611</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L31" t="n">
-        <v>587.5520906000654</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M31" t="n">
-        <v>685.6054381776846</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N31" t="n">
-        <v>1134.522993397789</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O31" t="n">
-        <v>1583.440548617893</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P31" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q31" t="n">
         <v>1813.808303919614</v>
@@ -6648,25 +6648,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S31" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T31" t="n">
-        <v>1813.808303919614</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.358509027547</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.647041635576</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.794637808089</v>
+        <v>1314.480767954067</v>
       </c>
       <c r="X31" t="n">
-        <v>790.2307412538939</v>
+        <v>1314.480767954067</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.887972943636</v>
+        <v>1088.137999643809</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="C32" t="n">
-        <v>1386.907573932914</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D32" t="n">
-        <v>963.6149531179142</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E32" t="n">
-        <v>537.6380132657717</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F32" t="n">
-        <v>112.513831455172</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G32" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H32" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I32" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J32" t="n">
-        <v>184.2963411149078</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K32" t="n">
-        <v>366.7061291250297</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L32" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M32" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N32" t="n">
         <v>1131.245262923652</v>
@@ -6727,25 +6727,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S32" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T32" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U32" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V32" t="n">
-        <v>1813.808303919614</v>
+        <v>920.271203895413</v>
       </c>
       <c r="W32" t="n">
-        <v>1813.808303919614</v>
+        <v>920.271203895413</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.808303919614</v>
+        <v>920.271203895413</v>
       </c>
       <c r="Y32" t="n">
-        <v>1813.808303919614</v>
+        <v>718.8438747983129</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F33" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G33" t="n">
         <v>80.62417733004328</v>
@@ -6782,13 +6782,13 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K33" t="n">
-        <v>559.2924683663468</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L33" t="n">
-        <v>735.9313191969958</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M33" t="n">
-        <v>945.2060176780109</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N33" t="n">
         <v>1162.360999510327</v>
@@ -6803,13 +6803,13 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R33" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S33" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T33" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U33" t="n">
         <v>1427.028547670861</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.3187092720623</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="C34" t="n">
-        <v>374.3461461509783</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="D34" t="n">
-        <v>374.3461461509783</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="E34" t="n">
-        <v>208.1379403038318</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F34" t="n">
-        <v>36.27616607839228</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G34" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H34" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I34" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J34" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K34" t="n">
-        <v>263.8742444497198</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L34" t="n">
-        <v>356.370067549942</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M34" t="n">
-        <v>805.2876227700464</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N34" t="n">
-        <v>1254.205177990151</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O34" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P34" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q34" t="n">
         <v>1813.808303919614</v>
@@ -6885,25 +6885,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S34" t="n">
-        <v>1759.382151682247</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T34" t="n">
-        <v>1519.391317513844</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U34" t="n">
-        <v>1519.391317513844</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V34" t="n">
-        <v>1237.679850121873</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W34" t="n">
-        <v>962.8274462943859</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X34" t="n">
-        <v>962.8274462943859</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="Y34" t="n">
-        <v>736.484677984128</v>
+        <v>414.7786835769092</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>517.1299447098844</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="C35" t="n">
-        <v>459.568786893392</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="D35" t="n">
-        <v>36.27616607839228</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="E35" t="n">
-        <v>36.27616607839228</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F35" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G35" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H35" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I35" t="n">
-        <v>68.08893453872675</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J35" t="n">
         <v>184.296341114908</v>
@@ -6946,7 +6946,7 @@
         <v>598.9981372303102</v>
       </c>
       <c r="M35" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N35" t="n">
         <v>1131.245262923652</v>
@@ -6964,25 +6964,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S35" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T35" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U35" t="n">
-        <v>1342.315579046524</v>
+        <v>1563.744396590508</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.315579046524</v>
+        <v>1563.744396590508</v>
       </c>
       <c r="W35" t="n">
-        <v>1342.315579046524</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="X35" t="n">
-        <v>1342.315579046524</v>
+        <v>1167.353046890855</v>
       </c>
       <c r="Y35" t="n">
-        <v>936.9783090014145</v>
+        <v>1167.353046890855</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>475.930883860742</v>
       </c>
       <c r="D36" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E36" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F36" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G36" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H36" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I36" t="n">
         <v>75.26691519968659</v>
       </c>
       <c r="J36" t="n">
-        <v>180.0465492813059</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K36" t="n">
-        <v>628.9641045014104</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L36" t="n">
-        <v>805.6029553320593</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.877653813074</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N36" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O36" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P36" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q36" t="n">
         <v>1674.905125453736</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>723.4058798477686</v>
+        <v>532.5720149307624</v>
       </c>
       <c r="C37" t="n">
-        <v>551.4333167266846</v>
+        <v>532.5720149307624</v>
       </c>
       <c r="D37" t="n">
-        <v>539.8194211830723</v>
+        <v>374.3461461509783</v>
       </c>
       <c r="E37" t="n">
-        <v>373.6112153359259</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F37" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J37" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K37" t="n">
-        <v>138.6345353799612</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L37" t="n">
-        <v>356.3700675499418</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M37" t="n">
-        <v>805.2876227700463</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N37" t="n">
-        <v>1254.205177990151</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O37" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P37" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q37" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R37" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S37" t="n">
-        <v>1657.330917251774</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T37" t="n">
-        <v>1657.330917251774</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="U37" t="n">
-        <v>1657.330917251774</v>
+        <v>1521.865751416481</v>
       </c>
       <c r="V37" t="n">
-        <v>1657.330917251774</v>
+        <v>1240.15428402451</v>
       </c>
       <c r="W37" t="n">
-        <v>1382.478513424287</v>
+        <v>965.3018801970229</v>
       </c>
       <c r="X37" t="n">
-        <v>1139.914616870092</v>
+        <v>722.737983642828</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.5718485598343</v>
+        <v>722.737983642828</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>631.1332547092231</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="C38" t="n">
-        <v>631.1332547092231</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D38" t="n">
-        <v>631.1332547092231</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E38" t="n">
-        <v>461.4003478889921</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F38" t="n">
         <v>36.27616607839227</v>
@@ -7177,13 +7177,13 @@
         <v>184.296341114908</v>
       </c>
       <c r="K38" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L38" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M38" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N38" t="n">
         <v>1131.245262923652</v>
@@ -7201,25 +7201,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S38" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T38" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U38" t="n">
-        <v>1813.808303919614</v>
+        <v>1607.214199529158</v>
       </c>
       <c r="V38" t="n">
-        <v>1456.318889045863</v>
+        <v>1249.724784655408</v>
       </c>
       <c r="W38" t="n">
-        <v>1456.318889045863</v>
+        <v>853.3334349557547</v>
       </c>
       <c r="X38" t="n">
-        <v>1456.318889045863</v>
+        <v>441.613436123502</v>
       </c>
       <c r="Y38" t="n">
-        <v>1050.981619000753</v>
+        <v>36.27616607839227</v>
       </c>
     </row>
     <row r="39">
@@ -7229,58 +7229,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C39" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D39" t="n">
-        <v>372.0909253760269</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E39" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F39" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G39" t="n">
-        <v>80.62417733004304</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H39" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I39" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J39" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K39" t="n">
-        <v>274.4772572558126</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L39" t="n">
-        <v>451.1161080864615</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M39" t="n">
-        <v>660.3908065674765</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N39" t="n">
-        <v>877.5457883997926</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O39" t="n">
-        <v>1072.589455387279</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P39" t="n">
-        <v>1225.987570233632</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q39" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R39" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S39" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T39" t="n">
         <v>1611.735244555134</v>
@@ -7295,10 +7295,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X39" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y39" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>873.0242029511239</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0516398300399</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D40" t="n">
-        <v>537.7348669568106</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E40" t="n">
-        <v>371.5266611096641</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F40" t="n">
-        <v>199.6648868842246</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G40" t="n">
-        <v>36.27616607839227</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H40" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I40" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="J40" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K40" t="n">
-        <v>463.838861142204</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L40" t="n">
-        <v>912.7564163623083</v>
+        <v>356.3700675499419</v>
       </c>
       <c r="M40" t="n">
-        <v>1010.809763939928</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N40" t="n">
-        <v>1107.808470031875</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O40" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q40" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R40" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S40" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T40" t="n">
-        <v>1813.808303919614</v>
+        <v>1560.015435747845</v>
       </c>
       <c r="U40" t="n">
-        <v>1813.808303919614</v>
+        <v>1560.015435747845</v>
       </c>
       <c r="V40" t="n">
-        <v>1532.096836527642</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="W40" t="n">
-        <v>1532.096836527642</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="X40" t="n">
-        <v>1289.532939973448</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="Y40" t="n">
-        <v>1063.19017166319</v>
+        <v>1278.303968355874</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316.2519252281125</v>
+        <v>459.568786893392</v>
       </c>
       <c r="C41" t="n">
-        <v>316.2519252281125</v>
+        <v>459.568786893392</v>
       </c>
       <c r="D41" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E41" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G41" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H41" t="n">
         <v>36.27616607839227</v>
@@ -7417,10 +7417,10 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L41" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M41" t="n">
-        <v>862.6140377103478</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N41" t="n">
         <v>1131.245262923652</v>
@@ -7438,25 +7438,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S41" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V41" t="n">
-        <v>1456.318889045863</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W41" t="n">
-        <v>1147.820288351895</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="X41" t="n">
-        <v>736.1002895196425</v>
+        <v>459.568786893392</v>
       </c>
       <c r="Y41" t="n">
-        <v>736.1002895196425</v>
+        <v>459.568786893392</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I42" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J42" t="n">
         <v>433.5238427951067</v>
@@ -7499,13 +7499,13 @@
         <v>735.9313191969957</v>
       </c>
       <c r="M42" t="n">
-        <v>945.2060176780107</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N42" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O42" t="n">
-        <v>1357.404666497813</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P42" t="n">
         <v>1510.802781344166</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>510.5505146247521</v>
+        <v>66.23841245210173</v>
       </c>
       <c r="C43" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D43" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E43" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F43" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G43" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H43" t="n">
         <v>36.27616607839227</v>
@@ -7572,49 +7572,49 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K43" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L43" t="n">
-        <v>665.4738072482863</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M43" t="n">
-        <v>1114.391362468391</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N43" t="n">
-        <v>1563.308917688495</v>
+        <v>1454.169794682635</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.602045510819</v>
+        <v>1540.462922504959</v>
       </c>
       <c r="P43" t="n">
-        <v>1720.343153651955</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q43" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R43" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S43" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T43" t="n">
-        <v>1731.476317110737</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U43" t="n">
-        <v>1451.334615593242</v>
+        <v>1281.874917248078</v>
       </c>
       <c r="V43" t="n">
-        <v>1169.62314820127</v>
+        <v>1000.163449856107</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.62314820127</v>
+        <v>725.3110460286202</v>
       </c>
       <c r="X43" t="n">
-        <v>927.0592516470756</v>
+        <v>482.7471494744253</v>
       </c>
       <c r="Y43" t="n">
-        <v>700.7164833368176</v>
+        <v>256.4043811641674</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>500.4228396038827</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="C44" t="n">
-        <v>73.52210961718282</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="D44" t="n">
-        <v>73.52210961718282</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="E44" t="n">
-        <v>73.52210961718282</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F44" t="n">
-        <v>73.52210961718282</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G44" t="n">
-        <v>73.52210961718282</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H44" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I44" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J44" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250304</v>
       </c>
       <c r="L44" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303107</v>
       </c>
       <c r="M44" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103485</v>
       </c>
       <c r="N44" t="n">
         <v>1131.245262923652</v>
@@ -7675,25 +7675,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S44" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T44" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U44" t="n">
-        <v>1277.760618769163</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V44" t="n">
-        <v>920.2712038954128</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W44" t="n">
-        <v>920.2712038954128</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="X44" t="n">
-        <v>920.2712038954128</v>
+        <v>941.1419951103478</v>
       </c>
       <c r="Y44" t="n">
-        <v>920.2712038954128</v>
+        <v>741.3761070387122</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C45" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D45" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E45" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F45" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G45" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H45" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I45" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J45" t="n">
-        <v>433.5238427951066</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K45" t="n">
-        <v>559.2924683663466</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L45" t="n">
-        <v>735.9313191969954</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M45" t="n">
-        <v>945.2060176780104</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N45" t="n">
         <v>1162.360999510327</v>
       </c>
       <c r="O45" t="n">
-        <v>1357.404666497813</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P45" t="n">
         <v>1510.802781344166</v>
@@ -7751,10 +7751,10 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R45" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S45" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T45" t="n">
         <v>1611.735244555134</v>
@@ -7769,10 +7769,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X45" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y45" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202.4843719255387</v>
+        <v>1088.137999643809</v>
       </c>
       <c r="C46" t="n">
-        <v>202.4843719255387</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D46" t="n">
-        <v>202.4843719255387</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E46" t="n">
-        <v>36.27616607839227</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F46" t="n">
-        <v>36.27616607839227</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G46" t="n">
-        <v>36.27616607839227</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H46" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I46" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J46" t="n">
-        <v>70.15038753583895</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K46" t="n">
-        <v>385.9171444939831</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L46" t="n">
-        <v>606.7836421246716</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M46" t="n">
-        <v>1055.701197344776</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N46" t="n">
-        <v>1152.699903436724</v>
+        <v>1459.727319160032</v>
       </c>
       <c r="O46" t="n">
-        <v>1238.993031259048</v>
+        <v>1546.020446982357</v>
       </c>
       <c r="P46" t="n">
         <v>1622.490343973492</v>
@@ -7830,28 +7830,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R46" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S46" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T46" t="n">
-        <v>1698.262578239011</v>
+        <v>1560.015435747845</v>
       </c>
       <c r="U46" t="n">
-        <v>1418.120876721515</v>
+        <v>1560.015435747845</v>
       </c>
       <c r="V46" t="n">
-        <v>1136.409409329544</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="W46" t="n">
-        <v>861.5570055020572</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="X46" t="n">
-        <v>618.9931089478623</v>
+        <v>1278.303968355874</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.6503406376044</v>
+        <v>1278.303968355874</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>326.4130602513782</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.01535248059739</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.37539003541869</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,22 +8853,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>147.8754625841163</v>
       </c>
       <c r="O13" t="n">
-        <v>50.95854331539985</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.37539003541869</v>
+        <v>176.8960973939092</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>147.8754625841163</v>
+        <v>49.89324888542876</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>70.37539003541784</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541778</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9330,10 +9330,10 @@
         <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>5.786655404040161</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779358</v>
+        <v>6.851949834011165</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>200.5903457215975</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>239.2050974761164</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>270.6908607606772</v>
+        <v>360.0219516362446</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>198.2474048310577</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>176.8960973939082</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.37539003541828</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362446</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>45.34488222711933</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>45.34488222711983</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.37539003541778</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10038,13 +10038,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>126.5047566361198</v>
       </c>
       <c r="M28" t="n">
         <v>354.4082905479648</v>
       </c>
       <c r="N28" t="n">
-        <v>329.0758190101172</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O28" t="n">
         <v>366.2873004017981</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>70.37539003541778</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.37539003541777</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>360.0219516362446</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>45.34488222711956</v>
       </c>
       <c r="N31" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>366.287300401798</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>120.89109554784</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.37539003541845</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>126.5047566361199</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M34" t="n">
-        <v>354.4082905479648</v>
+        <v>45.34488222711968</v>
       </c>
       <c r="N34" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>39.01535248059622</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>126.5047566361197</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M37" t="n">
-        <v>354.4082905479649</v>
+        <v>45.34488222711957</v>
       </c>
       <c r="N37" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>7.360890261673688</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>358.0675224703015</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>360.0219516362447</v>
+        <v>126.5047566361199</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O40" t="n">
-        <v>45.34488222711958</v>
+        <v>366.287300401798</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.37539003541804</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,10 +11220,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>360.0219516362447</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>354.4082905479648</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>11.40031649231993</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.06130070650052</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.37539003541873</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>129.6673480105721</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M46" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>5.786655404040118</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,13 +23260,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>346.5923180613571</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>238.5368324492442</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.119847630196737</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>182.7086656674163</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>8.501830148957424</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>51.10482562604494</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>33.31272476370194</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>183.3420743102053</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>323.0907413514867</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>351.8866814720718</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>20.15617486925356</v>
       </c>
       <c r="U19" t="n">
-        <v>5.115296187219599</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>388.7798288746397</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>148.7889546249937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.0673964688051</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>171.659231834425</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>340.1745919256028</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.90941067458684</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T23" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>144.2803323632145</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S25" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.5909258267186</v>
+        <v>162.0257208469115</v>
       </c>
       <c r="U25" t="n">
         <v>277.3402845023203</v>
@@ -24426,10 +24426,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>206.1721857969184</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H26" t="n">
-        <v>136.5555389533745</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>399.3513006389161</v>
       </c>
     </row>
     <row r="27">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I28" t="n">
         <v>75.43872475250879</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>99.16146698819333</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U28" t="n">
-        <v>233.2678007498382</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>180.1577002495844</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>193.0143803965274</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S31" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>55.13498755917439</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>170.2731578112005</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0907413514864</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -24985,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>201.8708415385294</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S34" t="n">
-        <v>101.0307220861682</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>75.94098908683947</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>365.6461764485054</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H35" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>71.97913139136821</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>150.1858485563209</v>
+        <v>5.039995052510704</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H37" t="n">
         <v>135.4602252892499</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T37" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,10 +25399,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>253.6815927015923</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.5660300744983</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U38" t="n">
-        <v>255.632988972596</v>
+        <v>115.0142363006321</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.063708683999096</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.5909258267186</v>
+        <v>152.9314416136104</v>
       </c>
       <c r="U40" t="n">
         <v>277.3402845023203</v>
@@ -25614,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25645,7 +25645,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>87.01382151562848</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>343.9348422145862</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>140.5902135799008</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25800,10 +25800,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I43" t="n">
         <v>75.43872475250879</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T43" t="n">
-        <v>156.0822588859309</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H44" t="n">
-        <v>240.3025174548204</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>203.5156681537393</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>123.2006574029216</v>
+        <v>152.9314416136099</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>419958.4623342021</v>
+        <v>419958.4623342022</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>419958.462334202</v>
+        <v>419958.4623342024</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>419958.4623342021</v>
+        <v>419958.4623342022</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>419958.4623342021</v>
+        <v>419958.4623342022</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>419958.4623342021</v>
+        <v>419958.4623342022</v>
       </c>
     </row>
     <row r="16">
@@ -26319,13 +26319,13 @@
         <v>16690.18744844179</v>
       </c>
       <c r="D2" t="n">
-        <v>17214.06240951685</v>
+        <v>17214.06240951686</v>
       </c>
       <c r="E2" t="n">
         <v>130703.8902560561</v>
       </c>
       <c r="F2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="G2" t="n">
         <v>130703.8902560561</v>
@@ -26340,7 +26340,7 @@
         <v>130703.8902560561</v>
       </c>
       <c r="K2" t="n">
-        <v>130703.8902560562</v>
+        <v>130703.8902560561</v>
       </c>
       <c r="L2" t="n">
         <v>130703.8902560561</v>
@@ -26355,7 +26355,7 @@
         <v>130703.8902560561</v>
       </c>
       <c r="P2" t="n">
-        <v>130703.8902560561</v>
+        <v>130703.8902560562</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>9817.757322612819</v>
       </c>
       <c r="D4" t="n">
-        <v>4298.372149429014</v>
+        <v>4298.372149429015</v>
       </c>
       <c r="E4" t="n">
         <v>12863.07495534993</v>
@@ -26438,7 +26438,7 @@
         <v>12863.07495534992</v>
       </c>
       <c r="I4" t="n">
-        <v>12863.07495534992</v>
+        <v>12863.07495534991</v>
       </c>
       <c r="J4" t="n">
         <v>12863.07495534992</v>
@@ -26453,7 +26453,7 @@
         <v>12863.07495534992</v>
       </c>
       <c r="N4" t="n">
-        <v>12863.07495534993</v>
+        <v>12863.07495534992</v>
       </c>
       <c r="O4" t="n">
         <v>12863.07495534992</v>
@@ -26502,7 +26502,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="M5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="N5" t="n">
         <v>36949.30081304155</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26755.16987417102</v>
+        <v>-28113.0989709728</v>
       </c>
       <c r="C6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.09897097281</v>
       </c>
       <c r="D6" t="n">
-        <v>-54217.31615536421</v>
+        <v>-55572.16363474791</v>
       </c>
       <c r="E6" t="n">
-        <v>-369510.8999721145</v>
+        <v>-370198.1602288716</v>
       </c>
       <c r="F6" t="n">
-        <v>80891.51448766468</v>
+        <v>80204.25423090765</v>
       </c>
       <c r="G6" t="n">
-        <v>80891.51448766465</v>
+        <v>80204.25423090767</v>
       </c>
       <c r="H6" t="n">
-        <v>80891.51448766462</v>
+        <v>80204.25423090768</v>
       </c>
       <c r="I6" t="n">
-        <v>80891.51448766462</v>
+        <v>80204.25423090768</v>
       </c>
       <c r="J6" t="n">
-        <v>80891.51448766464</v>
+        <v>80204.25423090767</v>
       </c>
       <c r="K6" t="n">
-        <v>80891.51448766468</v>
+        <v>80204.25423090764</v>
       </c>
       <c r="L6" t="n">
-        <v>80891.51448766467</v>
+        <v>80204.25423090764</v>
       </c>
       <c r="M6" t="n">
-        <v>-32110.55665483122</v>
+        <v>-32797.81691158819</v>
       </c>
       <c r="N6" t="n">
-        <v>80891.51448766462</v>
+        <v>80204.25423090765</v>
       </c>
       <c r="O6" t="n">
-        <v>80891.51448766468</v>
+        <v>80204.25423090767</v>
       </c>
       <c r="P6" t="n">
-        <v>80891.51448766462</v>
+        <v>80204.2542309077</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
         <v>430.2483758469461</v>
@@ -26758,7 +26758,7 @@
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="J3" t="n">
         <v>430.2483758469461</v>
@@ -26773,13 +26773,13 @@
         <v>430.2483758469461</v>
       </c>
       <c r="N3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="O3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="P3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
     </row>
     <row r="4">
@@ -26822,7 +26822,7 @@
         <v>453.4520759799034</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>453.4520759799034</v>
@@ -26831,7 +26831,7 @@
         <v>453.4520759799034</v>
       </c>
       <c r="P4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>392.0966196514721</v>
+        <v>392.096619651472</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32484,7 +32484,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O20" t="n">
         <v>291.4251699938981</v>
@@ -32493,16 +32493,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I21" t="n">
         <v>31.86273349432573</v>
@@ -32554,7 +32554,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L21" t="n">
         <v>200.9381683613497</v>
@@ -32563,7 +32563,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O21" t="n">
         <v>220.1856947600876</v>
@@ -32575,16 +32575,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L22" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M22" t="n">
         <v>121.6192253234244</v>
@@ -32648,16 +32648,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S22" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T22" t="n">
         <v>3.315028469640403</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H23" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I23" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J23" t="n">
         <v>146.801178249406</v>
@@ -32718,28 +32718,28 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M23" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N23" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O23" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P23" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R23" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S23" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T23" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U23" t="n">
         <v>0.1383713369558016</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H24" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I24" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J24" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K24" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L24" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M24" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N24" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O24" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P24" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R24" t="n">
-        <v>57.45845291027707</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S24" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T24" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H25" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I25" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J25" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K25" t="n">
-        <v>90.14056136596669</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L25" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M25" t="n">
         <v>121.6192253234244</v>
@@ -32885,22 +32885,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P25" t="n">
-        <v>93.83646544701256</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R25" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S25" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T25" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I26" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J26" t="n">
         <v>146.801178249406</v>
@@ -32958,7 +32958,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N26" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O26" t="n">
         <v>291.4251699938981</v>
@@ -32967,16 +32967,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R26" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S26" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T26" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U26" t="n">
         <v>0.1383713369558016</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H27" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I27" t="n">
         <v>31.86273349432573</v>
@@ -33028,7 +33028,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K27" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L27" t="n">
         <v>200.9381683613497</v>
@@ -33037,7 +33037,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N27" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O27" t="n">
         <v>220.1856947600876</v>
@@ -33049,16 +33049,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R27" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S27" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T27" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,19 +33098,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H28" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I28" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J28" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K28" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L28" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M28" t="n">
         <v>121.6192253234244</v>
@@ -33122,16 +33122,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P28" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R28" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S28" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T28" t="n">
         <v>3.315028469640403</v>
@@ -33180,7 +33180,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I29" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J29" t="n">
         <v>146.801178249406</v>
@@ -33195,7 +33195,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N29" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O29" t="n">
         <v>291.4251699938981</v>
@@ -33204,16 +33204,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R29" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S29" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T29" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U29" t="n">
         <v>0.1383713369558016</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H30" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I30" t="n">
         <v>31.86273349432573</v>
@@ -33265,7 +33265,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K30" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L30" t="n">
         <v>200.9381683613497</v>
@@ -33274,7 +33274,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N30" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O30" t="n">
         <v>220.1856947600876</v>
@@ -33286,16 +33286,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R30" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S30" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T30" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,19 +33335,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H31" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I31" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J31" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K31" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L31" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M31" t="n">
         <v>121.6192253234244</v>
@@ -33359,16 +33359,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P31" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R31" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S31" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T31" t="n">
         <v>3.315028469640403</v>
@@ -33417,7 +33417,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I32" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J32" t="n">
         <v>146.801178249406</v>
@@ -33432,7 +33432,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N32" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O32" t="n">
         <v>291.4251699938981</v>
@@ -33441,16 +33441,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R32" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S32" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T32" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U32" t="n">
         <v>0.1383713369558016</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H33" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I33" t="n">
         <v>31.86273349432573</v>
@@ -33502,7 +33502,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K33" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L33" t="n">
         <v>200.9381683613497</v>
@@ -33511,7 +33511,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N33" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O33" t="n">
         <v>220.1856947600876</v>
@@ -33523,16 +33523,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S33" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T33" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,19 +33572,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H34" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I34" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J34" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K34" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L34" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M34" t="n">
         <v>121.6192253234244</v>
@@ -33596,16 +33596,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P34" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R34" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S34" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T34" t="n">
         <v>3.315028469640403</v>
@@ -33654,7 +33654,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I35" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J35" t="n">
         <v>146.801178249406</v>
@@ -33669,7 +33669,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N35" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O35" t="n">
         <v>291.4251699938981</v>
@@ -33678,16 +33678,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R35" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S35" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T35" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U35" t="n">
         <v>0.1383713369558016</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H36" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I36" t="n">
         <v>31.86273349432573</v>
@@ -33739,7 +33739,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K36" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L36" t="n">
         <v>200.9381683613497</v>
@@ -33748,7 +33748,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N36" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O36" t="n">
         <v>220.1856947600876</v>
@@ -33760,16 +33760,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S36" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T36" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,19 +33809,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H37" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I37" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J37" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K37" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L37" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M37" t="n">
         <v>121.6192253234244</v>
@@ -33833,16 +33833,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P37" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R37" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S37" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T37" t="n">
         <v>3.315028469640403</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H38" t="n">
         <v>17.71369318248255</v>
@@ -33909,7 +33909,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O38" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P38" t="n">
         <v>248.7246402301936</v>
@@ -33924,7 +33924,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T38" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U38" t="n">
         <v>0.1383713369558016</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H39" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I39" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J39" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K39" t="n">
         <v>149.4382495618586</v>
@@ -33982,7 +33982,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M39" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N39" t="n">
         <v>240.6914947108307</v>
@@ -33997,7 +33997,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R39" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S39" t="n">
         <v>17.18964029916807</v>
@@ -34006,7 +34006,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H40" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I40" t="n">
         <v>23.332157824618</v>
@@ -34055,7 +34055,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K40" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L40" t="n">
         <v>115.3488842393599</v>
@@ -34070,10 +34070,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P40" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R40" t="n">
         <v>34.88538470391794</v>
@@ -34082,10 +34082,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T40" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H41" t="n">
         <v>17.71369318248255</v>
@@ -34146,7 +34146,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O41" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P41" t="n">
         <v>248.7246402301936</v>
@@ -34161,7 +34161,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T41" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U41" t="n">
         <v>0.1383713369558016</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H42" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I42" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J42" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K42" t="n">
         <v>149.4382495618586</v>
@@ -34219,7 +34219,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M42" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N42" t="n">
         <v>240.6914947108307</v>
@@ -34234,7 +34234,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R42" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S42" t="n">
         <v>17.18964029916807</v>
@@ -34243,7 +34243,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H43" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I43" t="n">
         <v>23.332157824618</v>
@@ -34292,7 +34292,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K43" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L43" t="n">
         <v>115.3488842393599</v>
@@ -34307,10 +34307,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P43" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R43" t="n">
         <v>34.88538470391794</v>
@@ -34319,10 +34319,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T43" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H44" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I44" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J44" t="n">
         <v>146.801178249406</v>
@@ -34377,16 +34377,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M44" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N44" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O44" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P44" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7818464210729</v>
@@ -34398,7 +34398,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T44" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U44" t="n">
         <v>0.1383713369558016</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H45" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I45" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J45" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K45" t="n">
         <v>149.4382495618586</v>
@@ -34456,31 +34456,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M45" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N45" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O45" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P45" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R45" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S45" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T45" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H46" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I46" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J46" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K46" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L46" t="n">
         <v>115.3488842393599</v>
@@ -34544,10 +34544,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P46" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R46" t="n">
         <v>34.88538470391794</v>
@@ -34556,10 +34556,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T46" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>361.8756844398183</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285253</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="L12" t="n">
         <v>178.4230816471201</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538915</v>
+        <v>193.9629432344889</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.7599435450206</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35573,22 +35573,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
+        <v>99.04378543193859</v>
+      </c>
+      <c r="N13" t="n">
+        <v>245.8539535860839</v>
+      </c>
+      <c r="O13" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="N13" t="n">
-        <v>97.9784910019676</v>
-      </c>
-      <c r="O13" t="n">
-        <v>138.1233188935052</v>
-      </c>
       <c r="P13" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.7599435450206</v>
+        <v>272.2806509035111</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
+        <v>93.43012434365872</v>
+      </c>
+      <c r="M16" t="n">
+        <v>148.9370343173674</v>
+      </c>
+      <c r="N16" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M16" t="n">
-        <v>246.9192480160549</v>
-      </c>
-      <c r="N16" t="n">
-        <v>97.9784910019676</v>
-      </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P16" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538915</v>
+        <v>225.3229807893094</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450197</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36050,10 +36050,10 @@
         <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
+        <v>453.4520759799034</v>
+      </c>
+      <c r="N19" t="n">
         <v>104.8304408359788</v>
-      </c>
-      <c r="N19" t="n">
-        <v>453.4520759799034</v>
       </c>
       <c r="O19" t="n">
         <v>87.16477557810538</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
@@ -36132,7 +36132,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O20" t="n">
         <v>254.034210637874</v>
@@ -36144,7 +36144,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>15.69034674432573</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285253</v>
+        <v>327.6293614501228</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N21" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>453.4520759799034</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q21" t="n">
-        <v>334.5896509857183</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613294</v>
+        <v>33.78553351613295</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L22" t="n">
-        <v>364.1209851043359</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>99.0437854319386</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799034</v>
+        <v>285.4121804091631</v>
       </c>
       <c r="P22" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810391</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J23" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K23" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L23" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M23" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N23" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O23" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P23" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q23" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R23" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J24" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K24" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L24" t="n">
-        <v>178.4230816471201</v>
+        <v>355.3191790410283</v>
       </c>
       <c r="M24" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N24" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O24" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P24" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.7599435450201</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R24" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613295</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K25" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L25" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="M25" t="n">
-        <v>99.04378543193857</v>
+        <v>144.3886676590579</v>
       </c>
       <c r="N25" t="n">
-        <v>97.97849100196757</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O25" t="n">
-        <v>132.5096578052252</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P25" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.2504645920423</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J26" t="n">
         <v>117.3812187638195</v>
@@ -36606,7 +36606,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N26" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O26" t="n">
         <v>254.034210637874</v>
@@ -36618,7 +36618,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R26" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L27" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M27" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N27" t="n">
         <v>219.3484664972891</v>
@@ -36691,7 +36691,7 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P27" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q27" t="n">
         <v>165.7599435450197</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.21638531055221</v>
+        <v>34.21638531055223</v>
       </c>
       <c r="K28" t="n">
-        <v>69.17590691325471</v>
+        <v>69.17590691325472</v>
       </c>
       <c r="L28" t="n">
-        <v>93.43012434365872</v>
+        <v>219.9348809797786</v>
       </c>
       <c r="M28" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="N28" t="n">
-        <v>427.0543100120848</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O28" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="P28" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J29" t="n">
         <v>117.3812187638195</v>
@@ -36843,7 +36843,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N29" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O29" t="n">
         <v>254.034210637874</v>
@@ -36855,7 +36855,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R29" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K30" t="n">
-        <v>197.4144057639431</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L30" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M30" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N30" t="n">
         <v>219.3484664972891</v>
@@ -36928,10 +36928,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P30" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R30" t="n">
         <v>140.3062408746237</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K31" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L31" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="M31" t="n">
-        <v>99.0437854319386</v>
+        <v>144.3886676590582</v>
       </c>
       <c r="N31" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196763</v>
       </c>
       <c r="O31" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P31" t="n">
-        <v>192.3467603368661</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J32" t="n">
         <v>117.3812187638195</v>
@@ -37080,7 +37080,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N32" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O32" t="n">
         <v>254.034210637874</v>
@@ -37092,7 +37092,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R32" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L33" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M33" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N33" t="n">
         <v>219.3484664972891</v>
@@ -37165,10 +37165,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P33" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.7599435450203</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R33" t="n">
         <v>140.3062408746237</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K34" t="n">
-        <v>195.6806635493746</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L34" t="n">
-        <v>93.43012434365875</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M34" t="n">
-        <v>453.4520759799034</v>
+        <v>144.3886676590583</v>
       </c>
       <c r="N34" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O34" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P34" t="n">
-        <v>71.45566478902612</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.34794198810393</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J35" t="n">
         <v>117.3812187638195</v>
@@ -37317,7 +37317,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N35" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O35" t="n">
         <v>254.034210637874</v>
@@ -37329,7 +37329,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R35" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J36" t="n">
-        <v>105.8380142238579</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K36" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L36" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M36" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N36" t="n">
         <v>219.3484664972891</v>
@@ -37402,10 +37402,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P36" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.3845535096019</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R36" t="n">
         <v>140.3062408746237</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K37" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L37" t="n">
-        <v>219.9348809797784</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M37" t="n">
-        <v>453.4520759799035</v>
+        <v>144.3886676590582</v>
       </c>
       <c r="N37" t="n">
-        <v>453.4520759799035</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O37" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P37" t="n">
-        <v>71.45566478902612</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.34794198810393</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L38" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M38" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N38" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O38" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P38" t="n">
         <v>211.1492784199623</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J39" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K39" t="n">
-        <v>134.399905990199</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L39" t="n">
         <v>178.4230816471201</v>
@@ -37636,13 +37636,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O39" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P39" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q39" t="n">
-        <v>453.4520759799034</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R39" t="n">
         <v>140.3062408746237</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K40" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L40" t="n">
+        <v>219.9348809797786</v>
+      </c>
+      <c r="M40" t="n">
         <v>453.4520759799034</v>
       </c>
-      <c r="M40" t="n">
-        <v>99.04378543193859</v>
-      </c>
       <c r="N40" t="n">
-        <v>97.97849100196758</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O40" t="n">
-        <v>132.5096578052249</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P40" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L41" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M41" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N41" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O41" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P41" t="n">
         <v>211.1492784199623</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J42" t="n">
         <v>361.8756844398183</v>
@@ -37873,13 +37873,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O42" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P42" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.7599435450199</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R42" t="n">
         <v>140.3062408746237</v>
@@ -37940,10 +37940,10 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K43" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L43" t="n">
-        <v>453.4520759799034</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M43" t="n">
         <v>453.4520759799034</v>
@@ -37952,13 +37952,13 @@
         <v>453.4520759799034</v>
       </c>
       <c r="O43" t="n">
-        <v>87.16477557810536</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P43" t="n">
-        <v>71.45566478902609</v>
+        <v>82.85598128134603</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.40924269460442</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J44" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K44" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L44" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M44" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N44" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O44" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P44" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q44" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R44" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J45" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K45" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L45" t="n">
         <v>178.4230816471201</v>
@@ -38107,16 +38107,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N45" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O45" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P45" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.7599435450206</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R45" t="n">
         <v>140.3062408746237</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.2163853105522</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K46" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L46" t="n">
-        <v>223.0974723542308</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M46" t="n">
-        <v>453.4520759799034</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N46" t="n">
-        <v>97.97849100196757</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O46" t="n">
-        <v>87.16477557810535</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P46" t="n">
-        <v>387.3710229438823</v>
+        <v>77.24232019306622</v>
       </c>
       <c r="Q46" t="n">
         <v>193.2504645920423</v>
